--- a/MyStoreProject_ATI/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProject_ATI/src/test/resources/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118B6112-085E-44F3-8F63-B2C5F1C53A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74809B61-A84C-434F-A2A8-E3377CBF3298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -285,13 +285,13 @@
     <t>M</t>
   </si>
   <si>
-    <t>ghfsdtyfg_2@gmail.com</t>
-  </si>
-  <si>
-    <t>newtest_2@gmail.com</t>
-  </si>
-  <si>
     <t>newtest_3@gmail.com</t>
+  </si>
+  <si>
+    <t>newtest_4@gmail.com</t>
+  </si>
+  <si>
+    <t>ghfsdtyfg_3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -802,7 +802,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>67</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>67</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>67</v>
@@ -1352,9 +1352,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{976C946F-35CA-4EF6-BBA8-7946BD7C2F5B}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{8F1D1EB8-6539-443B-B5A7-872B126EB827}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{6B2B42FB-2BFD-4354-851A-233E19670948}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{518B6C1C-259A-40BC-9553-BF0B6F1A51C6}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{A94868EC-7599-4CA1-B4F6-17858B7DFB44}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{42FBBFD4-9406-4B2D-9C2A-50C53A58C274}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1364,7 +1364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B5D9E1-537B-4734-AED5-61BD595E2FBA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -1390,7 +1390,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/MyStoreProject_ATI/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProject_ATI/src/test/resources/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74809B61-A84C-434F-A2A8-E3377CBF3298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BB676F-75CC-488D-8E4B-3FB3BEE5C887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2745" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
   <si>
     <t>TestCases</t>
   </si>
@@ -285,13 +285,16 @@
     <t>M</t>
   </si>
   <si>
-    <t>newtest_3@gmail.com</t>
-  </si>
-  <si>
     <t>newtest_4@gmail.com</t>
   </si>
   <si>
-    <t>ghfsdtyfg_3@gmail.com</t>
+    <t>prueba102022@gmail.com</t>
+  </si>
+  <si>
+    <t>newtest_5@gmail.com</t>
+  </si>
+  <si>
+    <t>newtest_6@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1110,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1125,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1139,8 +1142,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1261,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>67</v>
@@ -1305,7 +1308,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>67</v>
@@ -1390,7 +1393,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
